--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelTestDataFile.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19380" windowHeight="6495" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="deals" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>First Name</t>
   </si>
@@ -39,13 +40,73 @@
   </si>
   <si>
     <t>Datta Mandir Road</t>
+  </si>
+  <si>
+    <t>Secondary Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Wanjarkheda</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>413 511</t>
+  </si>
+  <si>
+    <t>http://a.testaddressbook.com/addresses/new</t>
+  </si>
+  <si>
+    <t>Climb</t>
+  </si>
+  <si>
+    <t>Notes Added</t>
+  </si>
+  <si>
+    <t>United State</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>Tq &amp; Dist:-Latur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,6 +118,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,14 +154,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -368,18 +442,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -389,20 +468,90 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1234567890</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="4">
+        <v>32663</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelTestDataFile.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19380" windowHeight="6495" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19380" windowHeight="6495" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
-    <sheet name="deals" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginDetails" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>First Name</t>
   </si>
@@ -97,6 +96,18 @@
   </si>
   <si>
     <t>Tq &amp; Dist:-Latur</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>knagesh143s@gmail.com</t>
+  </si>
+  <si>
+    <t>knagesh143s</t>
   </si>
 </sst>
 </file>
@@ -434,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -557,12 +568,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelTestDataFile.xlsx
+++ b/SeleniumPracticeProject/src/main/java/com/crm/qa/testdata/ExcelTestDataFile.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>First Name</t>
   </si>
@@ -445,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,6 +592,14 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
     </row>
